--- a/Code/Results/Cases/Case_6_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_31/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.035147208961291</v>
+        <v>1.586789907437179</v>
       </c>
       <c r="C2">
-        <v>0.4657649596414331</v>
+        <v>0.1217255249858624</v>
       </c>
       <c r="D2">
-        <v>0.07057443895336846</v>
+        <v>0.0923900367957966</v>
       </c>
       <c r="E2">
-        <v>0.02354358947272495</v>
+        <v>0.02843834934291589</v>
       </c>
       <c r="F2">
-        <v>2.342747761914126</v>
+        <v>2.029825429790264</v>
       </c>
       <c r="G2">
-        <v>0.0008165352535882337</v>
+        <v>0.0008458441454658698</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,16 +448,16 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7398731905293516</v>
+        <v>1.407114439204122</v>
       </c>
       <c r="L2">
-        <v>0.1482981304480475</v>
+        <v>0.146390549174555</v>
       </c>
       <c r="M2">
-        <v>0.4933386529490065</v>
+        <v>0.3013376473500031</v>
       </c>
       <c r="N2">
-        <v>1.679746721114128</v>
+        <v>2.38342575391512</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.64998381254884</v>
+        <v>1.402031139336515</v>
       </c>
       <c r="C3">
-        <v>0.4020042403701325</v>
+        <v>0.1067739462421571</v>
       </c>
       <c r="D3">
-        <v>0.07255642908552318</v>
+        <v>0.09464391217606671</v>
       </c>
       <c r="E3">
-        <v>0.02334355944319877</v>
+        <v>0.02796113666702915</v>
       </c>
       <c r="F3">
-        <v>2.14629818086091</v>
+        <v>1.90947540042707</v>
       </c>
       <c r="G3">
-        <v>0.0008252101932651563</v>
+        <v>0.0008526397914053939</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,16 +495,16 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6412992229266905</v>
+        <v>1.229258617511789</v>
       </c>
       <c r="L3">
-        <v>0.134422856655533</v>
+        <v>0.1331502139452567</v>
       </c>
       <c r="M3">
-        <v>0.4334115212140119</v>
+        <v>0.2680933222894915</v>
       </c>
       <c r="N3">
-        <v>1.695351759706767</v>
+        <v>2.381268614893145</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.418132052721489</v>
+        <v>1.290641183946974</v>
       </c>
       <c r="C4">
-        <v>0.3633952496633981</v>
+        <v>0.09766890101889203</v>
       </c>
       <c r="D4">
-        <v>0.07385213325753526</v>
+        <v>0.09604140697880403</v>
       </c>
       <c r="E4">
-        <v>0.02322735360326855</v>
+        <v>0.0276932621585706</v>
       </c>
       <c r="F4">
-        <v>2.030206101543897</v>
+        <v>1.838422310048827</v>
       </c>
       <c r="G4">
-        <v>0.0008306799163710643</v>
+        <v>0.0008569388817110846</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,16 +542,16 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5818701290146109</v>
+        <v>1.121804322954802</v>
       </c>
       <c r="L4">
-        <v>0.1261404115741769</v>
+        <v>0.1252188563582521</v>
       </c>
       <c r="M4">
-        <v>0.3973874603026744</v>
+        <v>0.2480796737311799</v>
       </c>
       <c r="N4">
-        <v>1.707063135557917</v>
+        <v>2.382018566971013</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.324678346346559</v>
+        <v>1.245714758205565</v>
       </c>
       <c r="C5">
-        <v>0.3477744086316648</v>
+        <v>0.0939732726915139</v>
       </c>
       <c r="D5">
-        <v>0.07439897717782173</v>
+        <v>0.09661449031611813</v>
       </c>
       <c r="E5">
-        <v>0.02318146029766854</v>
+        <v>0.02759019557569786</v>
       </c>
       <c r="F5">
-        <v>1.983929697583093</v>
+        <v>1.81013178936945</v>
       </c>
       <c r="G5">
-        <v>0.0008329465516115721</v>
+        <v>0.0008587235520850308</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5578922932603234</v>
+        <v>1.078407592237397</v>
       </c>
       <c r="L5">
-        <v>0.1228194449754128</v>
+        <v>0.1220327346127448</v>
       </c>
       <c r="M5">
-        <v>0.3828794670721223</v>
+        <v>0.2400149563665046</v>
       </c>
       <c r="N5">
-        <v>1.712340430556097</v>
+        <v>2.382821839379687</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.309218656625376</v>
+        <v>1.23828149201475</v>
       </c>
       <c r="C6">
-        <v>0.3451867410364287</v>
+        <v>0.09336039084790571</v>
       </c>
       <c r="D6">
-        <v>0.07449089123995734</v>
+        <v>0.09670987232781858</v>
       </c>
       <c r="E6">
-        <v>0.02317392254495876</v>
+        <v>0.02757344320579946</v>
       </c>
       <c r="F6">
-        <v>1.976304915632014</v>
+        <v>1.805472872568103</v>
       </c>
       <c r="G6">
-        <v>0.0008333252462443678</v>
+        <v>0.0008590219000073316</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,16 +636,16 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5539243047069107</v>
+        <v>1.071223911060429</v>
       </c>
       <c r="L6">
-        <v>0.1222711245269039</v>
+        <v>0.1215063493586541</v>
       </c>
       <c r="M6">
-        <v>0.380480214751131</v>
+        <v>0.238681055495789</v>
       </c>
       <c r="N6">
-        <v>1.713246360857156</v>
+        <v>2.382984610186696</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.416867717379773</v>
+        <v>1.290033468096851</v>
       </c>
       <c r="C7">
-        <v>0.3631841547496322</v>
+        <v>0.09761900606204676</v>
       </c>
       <c r="D7">
-        <v>0.07385943313683896</v>
+        <v>0.09604912100891116</v>
       </c>
       <c r="E7">
-        <v>0.02322672900281209</v>
+        <v>0.02769184777843048</v>
       </c>
       <c r="F7">
-        <v>2.029577957671918</v>
+        <v>1.838038149215805</v>
       </c>
       <c r="G7">
-        <v>0.0008307103303748529</v>
+        <v>0.0008569628164612525</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5815458285837565</v>
+        <v>1.121217534625202</v>
       </c>
       <c r="L7">
-        <v>0.1260954112450037</v>
+        <v>0.1251757060186165</v>
       </c>
       <c r="M7">
-        <v>0.3971911312050764</v>
+        <v>0.2479705533602861</v>
       </c>
       <c r="N7">
-        <v>1.707132301775673</v>
+        <v>2.382027415640181</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.9012923267573</v>
+        <v>1.522627661848219</v>
       </c>
       <c r="C8">
-        <v>0.4436534671667118</v>
+        <v>0.1165519805570483</v>
       </c>
       <c r="D8">
-        <v>0.07124086842319244</v>
+        <v>0.09316445357614622</v>
       </c>
       <c r="E8">
-        <v>0.02347311800535046</v>
+        <v>0.02826844838020026</v>
       </c>
       <c r="F8">
-        <v>2.27400486799641</v>
+        <v>1.987707280473941</v>
       </c>
       <c r="G8">
-        <v>0.0008194976716737309</v>
+        <v>0.0008481616045378489</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7056351074942384</v>
+        <v>1.345396421317787</v>
       </c>
       <c r="L8">
-        <v>0.1434613432103689</v>
+        <v>0.1417817095673044</v>
       </c>
       <c r="M8">
-        <v>0.4725019003668862</v>
+        <v>0.2897865526982741</v>
       </c>
       <c r="N8">
-        <v>1.68466595338765</v>
+        <v>2.382236455237148</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.895036046613427</v>
+        <v>1.997504765246106</v>
       </c>
       <c r="C9">
-        <v>0.606910764879558</v>
+        <v>0.154483387059841</v>
       </c>
       <c r="D9">
-        <v>0.06678019041370575</v>
+        <v>0.08760756135626213</v>
       </c>
       <c r="E9">
-        <v>0.0240191930057847</v>
+        <v>0.02960969640908928</v>
       </c>
       <c r="F9">
-        <v>2.794600834280089</v>
+        <v>2.306241194549187</v>
       </c>
       <c r="G9">
-        <v>0.000798564376451976</v>
+        <v>0.0008318608069191681</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,16 +777,16 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9594505970145093</v>
+        <v>1.801270985544136</v>
       </c>
       <c r="L9">
-        <v>0.1796667945696058</v>
+        <v>0.1761098262008431</v>
       </c>
       <c r="M9">
-        <v>0.6274035353824274</v>
+        <v>0.3754018871056743</v>
       </c>
       <c r="N9">
-        <v>1.659044410380815</v>
+        <v>2.400281267632224</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.662758843117103</v>
+        <v>2.361615177427609</v>
       </c>
       <c r="C10">
-        <v>0.7320252193674719</v>
+        <v>0.1831593249431052</v>
       </c>
       <c r="D10">
-        <v>0.06399330053039165</v>
+        <v>0.08357430491993689</v>
       </c>
       <c r="E10">
-        <v>0.02447575224733844</v>
+        <v>0.03074034998376263</v>
       </c>
       <c r="F10">
-        <v>3.210606728157472</v>
+        <v>2.559315344150576</v>
       </c>
       <c r="G10">
-        <v>0.0007836999705377458</v>
+        <v>0.0008203997807306287</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,16 +824,16 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.155112381824893</v>
+        <v>2.149749709956041</v>
       </c>
       <c r="L10">
-        <v>0.2079999324947437</v>
+        <v>0.2026967328421136</v>
       </c>
       <c r="M10">
-        <v>0.747326455449894</v>
+        <v>0.441197905023877</v>
       </c>
       <c r="N10">
-        <v>1.653860913160628</v>
+        <v>2.426082026584822</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.023004775185882</v>
+        <v>2.53150153394796</v>
       </c>
       <c r="C11">
-        <v>0.7905448338916017</v>
+        <v>0.1964597991323274</v>
       </c>
       <c r="D11">
-        <v>0.06285327995854573</v>
+        <v>0.08174764214713903</v>
       </c>
       <c r="E11">
-        <v>0.02470012415436829</v>
+        <v>0.03129042134283111</v>
       </c>
       <c r="F11">
-        <v>3.409298575044971</v>
+        <v>2.679522203111574</v>
       </c>
       <c r="G11">
-        <v>0.0007770170042115042</v>
+        <v>0.0008152808057305352</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.246841236224341</v>
+        <v>2.312127054017736</v>
       </c>
       <c r="L11">
-        <v>0.2213739816946827</v>
+        <v>0.2151603820712467</v>
       </c>
       <c r="M11">
-        <v>0.8036533381162485</v>
+        <v>0.4719301122666906</v>
       </c>
       <c r="N11">
-        <v>1.65508828022439</v>
+        <v>2.440990461424946</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.161274450728001</v>
+        <v>2.596531136633928</v>
       </c>
       <c r="C12">
-        <v>0.8129818788961245</v>
+        <v>0.201540550595908</v>
       </c>
       <c r="D12">
-        <v>0.06244209846871129</v>
+        <v>0.08105688931455468</v>
       </c>
       <c r="E12">
-        <v>0.02478795855375582</v>
+        <v>0.03150424138855712</v>
       </c>
       <c r="F12">
-        <v>3.486105276528264</v>
+        <v>2.725859613693615</v>
       </c>
       <c r="G12">
-        <v>0.0007744945700349781</v>
+        <v>0.0008133544542861266</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,16 +918,16 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.282037588255292</v>
+        <v>2.374252836674344</v>
       </c>
       <c r="L12">
-        <v>0.2265185190436227</v>
+        <v>0.2199397605123607</v>
       </c>
       <c r="M12">
-        <v>0.8252804212673155</v>
+        <v>0.4836986623737332</v>
       </c>
       <c r="N12">
-        <v>1.65612933855985</v>
+        <v>2.447133876091783</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.131408528347663</v>
+        <v>2.582493368252813</v>
       </c>
       <c r="C13">
-        <v>0.8081365366867033</v>
+        <v>0.2004442297848783</v>
       </c>
       <c r="D13">
-        <v>0.06252970317132167</v>
+        <v>0.0812056155669012</v>
       </c>
       <c r="E13">
-        <v>0.02476890582648617</v>
+        <v>0.03145793943072128</v>
       </c>
       <c r="F13">
-        <v>3.46949030136571</v>
+        <v>2.715842176204092</v>
       </c>
       <c r="G13">
-        <v>0.0007750375076194249</v>
+        <v>0.0008137688164352452</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,16 +965,16 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.274435732368104</v>
+        <v>2.360843192005888</v>
       </c>
       <c r="L13">
-        <v>0.2254068108520642</v>
+        <v>0.2189076702644712</v>
       </c>
       <c r="M13">
-        <v>0.8206086839394189</v>
+        <v>0.4811580039440813</v>
       </c>
       <c r="N13">
-        <v>1.655878440625145</v>
+        <v>2.445787922702294</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.034341504818372</v>
+        <v>2.536837058305082</v>
       </c>
       <c r="C14">
-        <v>0.7923849048371778</v>
+        <v>0.1968768655244162</v>
       </c>
       <c r="D14">
-        <v>0.06281902701462982</v>
+        <v>0.08169079530368251</v>
       </c>
       <c r="E14">
-        <v>0.02470728983936388</v>
+        <v>0.03130789949740631</v>
       </c>
       <c r="F14">
-        <v>3.415584825036746</v>
+        <v>2.683317492379203</v>
       </c>
       <c r="G14">
-        <v>0.0007768093355961977</v>
+        <v>0.0008151220904709639</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.249727199004155</v>
+        <v>2.31722490666894</v>
       </c>
       <c r="L14">
-        <v>0.221795557197396</v>
+        <v>0.215552348557722</v>
       </c>
       <c r="M14">
-        <v>0.8054263900297585</v>
+        <v>0.4728955982093908</v>
       </c>
       <c r="N14">
-        <v>1.65516200149122</v>
+        <v>2.44148564930839</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.975135009825976</v>
+        <v>2.508964768407225</v>
       </c>
       <c r="C15">
-        <v>0.7827741233819268</v>
+        <v>0.1946977348389964</v>
       </c>
       <c r="D15">
-        <v>0.06299898816760674</v>
+        <v>0.08198810162068337</v>
       </c>
       <c r="E15">
-        <v>0.02466993735613432</v>
+        <v>0.0312167265386698</v>
       </c>
       <c r="F15">
-        <v>3.38277680056018</v>
+        <v>2.663504402633905</v>
       </c>
       <c r="G15">
-        <v>0.0007778956085708527</v>
+        <v>0.0008159525370033949</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.234654713107872</v>
+        <v>2.290593015161562</v>
       </c>
       <c r="L15">
-        <v>0.2195943170476369</v>
+        <v>0.2135050939608902</v>
       </c>
       <c r="M15">
-        <v>0.7961668679003608</v>
+        <v>0.467852180697804</v>
       </c>
       <c r="N15">
-        <v>1.654800154977721</v>
+        <v>2.438916543520207</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.639459634828825</v>
+        <v>2.35060540019515</v>
       </c>
       <c r="C16">
-        <v>0.7282369172890526</v>
+        <v>0.1822958653327191</v>
       </c>
       <c r="D16">
-        <v>0.06407055026622288</v>
+        <v>0.0836938274629766</v>
       </c>
       <c r="E16">
-        <v>0.02446146311745667</v>
+        <v>0.03070515233643789</v>
       </c>
       <c r="F16">
-        <v>3.197829011679318</v>
+        <v>2.55156903434704</v>
       </c>
       <c r="G16">
-        <v>0.0007841380512147429</v>
+        <v>0.0008207360965158628</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,16 +1106,16 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.149178160836243</v>
+        <v>2.139222395951464</v>
       </c>
       <c r="L16">
-        <v>0.2071365211168228</v>
+        <v>0.2018901799979034</v>
       </c>
       <c r="M16">
-        <v>0.7436845367471463</v>
+        <v>0.4392069135482686</v>
       </c>
       <c r="N16">
-        <v>1.653857852649438</v>
+        <v>2.425175023158488</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.436533359108523</v>
+        <v>2.254604312130709</v>
       </c>
       <c r="C17">
-        <v>0.6952219713883778</v>
+        <v>0.1747582059541912</v>
       </c>
       <c r="D17">
-        <v>0.06476206392056483</v>
+        <v>0.08474216588248318</v>
       </c>
       <c r="E17">
-        <v>0.0243381537635512</v>
+        <v>0.03040073003712607</v>
       </c>
       <c r="F17">
-        <v>3.086928876727143</v>
+        <v>2.484261040825245</v>
       </c>
       <c r="G17">
-        <v>0.0007879857264551769</v>
+        <v>0.0008236938711259396</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,16 +1153,16 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.097484533518241</v>
+        <v>2.047404600664038</v>
       </c>
       <c r="L17">
-        <v>0.1996252587097018</v>
+        <v>0.1948638330512864</v>
       </c>
       <c r="M17">
-        <v>0.7119709213824095</v>
+        <v>0.4218498814695408</v>
       </c>
       <c r="N17">
-        <v>1.654238753776013</v>
+        <v>2.417585777110901</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.320833262044914</v>
+        <v>2.199781477302849</v>
       </c>
       <c r="C18">
-        <v>0.6763805478820188</v>
+        <v>0.1704463188509209</v>
       </c>
       <c r="D18">
-        <v>0.06517168159407305</v>
+        <v>0.08534591550646198</v>
       </c>
       <c r="E18">
-        <v>0.02426876703669856</v>
+        <v>0.03022897264376567</v>
       </c>
       <c r="F18">
-        <v>3.024017459934015</v>
+        <v>2.446019920125252</v>
       </c>
       <c r="G18">
-        <v>0.0007902064429452478</v>
+        <v>0.0008254041182408736</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,16 +1200,16 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.068003215126311</v>
+        <v>1.994950612976453</v>
       </c>
       <c r="L18">
-        <v>0.1953499553444402</v>
+        <v>0.1908567776599455</v>
       </c>
       <c r="M18">
-        <v>0.6938941665008898</v>
+        <v>0.4119409653676271</v>
       </c>
       <c r="N18">
-        <v>1.654791225544685</v>
+        <v>2.41351641261177</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.281826340028374</v>
+        <v>2.181284672205777</v>
       </c>
       <c r="C19">
-        <v>0.6700252608792709</v>
+        <v>0.1689902248000834</v>
       </c>
       <c r="D19">
-        <v>0.06531235096065302</v>
+        <v>0.08555047352905287</v>
       </c>
       <c r="E19">
-        <v>0.02424552488933274</v>
+        <v>0.03017138085036564</v>
       </c>
       <c r="F19">
-        <v>3.002861199129796</v>
+        <v>2.433150808532872</v>
       </c>
       <c r="G19">
-        <v>0.0007909597387239324</v>
+        <v>0.0008259847707423607</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,16 +1247,16 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.058062576605593</v>
+        <v>1.977249547479801</v>
       </c>
       <c r="L19">
-        <v>0.1939098427058923</v>
+        <v>0.1895057607911639</v>
       </c>
       <c r="M19">
-        <v>0.6878006679032822</v>
+        <v>0.4085982999082063</v>
       </c>
       <c r="N19">
-        <v>1.655033823892907</v>
+        <v>2.41218818943517</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.45802803446702</v>
+        <v>2.264782371687204</v>
       </c>
       <c r="C20">
-        <v>0.6987208469626296</v>
+        <v>0.1755581117453744</v>
       </c>
       <c r="D20">
-        <v>0.06468720735995248</v>
+        <v>0.08463048988272881</v>
       </c>
       <c r="E20">
-        <v>0.02435111796692091</v>
+        <v>0.0304327881644646</v>
       </c>
       <c r="F20">
-        <v>3.0986423667959</v>
+        <v>2.491376572289838</v>
       </c>
       <c r="G20">
-        <v>0.0007875753656261872</v>
+        <v>0.0008233780886912634</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.102960907482483</v>
+        <v>2.057141220686248</v>
       </c>
       <c r="L20">
-        <v>0.2004201200518452</v>
+        <v>0.1956082027311652</v>
       </c>
       <c r="M20">
-        <v>0.7153296195195011</v>
+        <v>0.4236897593431337</v>
       </c>
       <c r="N20">
-        <v>1.654163288071203</v>
+        <v>2.418362765050119</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.062799838097078</v>
+        <v>2.550227767834087</v>
       </c>
       <c r="C21">
-        <v>0.7970036241327421</v>
+        <v>0.1979234256858433</v>
       </c>
       <c r="D21">
-        <v>0.06273346983338612</v>
+        <v>0.08154826166111917</v>
       </c>
       <c r="E21">
-        <v>0.02472530590319666</v>
+        <v>0.03135181682296384</v>
       </c>
       <c r="F21">
-        <v>3.431373862520786</v>
+        <v>2.69284785150063</v>
       </c>
       <c r="G21">
-        <v>0.0007762887092006791</v>
+        <v>0.0008147242857211255</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.256971593642177</v>
+        <v>2.330018661655828</v>
       </c>
       <c r="L21">
-        <v>0.2228540078564265</v>
+        <v>0.2165362128148871</v>
       </c>
       <c r="M21">
-        <v>0.8098773633014318</v>
+        <v>0.4753187804492143</v>
       </c>
       <c r="N21">
-        <v>1.655356271322432</v>
+        <v>2.442735462369313</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.46900286146581</v>
+        <v>2.74089394154106</v>
       </c>
       <c r="C22">
-        <v>0.8628776779705731</v>
+        <v>0.2128018347565614</v>
       </c>
       <c r="D22">
-        <v>0.06157745456809494</v>
+        <v>0.07953937717345916</v>
       </c>
       <c r="E22">
-        <v>0.02498686721955679</v>
+        <v>0.03198483481119219</v>
       </c>
       <c r="F22">
-        <v>3.658081046252136</v>
+        <v>2.829334094584937</v>
       </c>
       <c r="G22">
-        <v>0.0007689586339842138</v>
+        <v>0.0008091381965290513</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,16 +1388,16 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.360350647539235</v>
+        <v>2.512117769181174</v>
       </c>
       <c r="L22">
-        <v>0.2379883881133225</v>
+        <v>0.2305651989125437</v>
       </c>
       <c r="M22">
-        <v>0.8734266730271756</v>
+        <v>0.5098329793796452</v>
       </c>
       <c r="N22">
-        <v>1.659529473750951</v>
+        <v>2.461589390692467</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.251103770794543</v>
+        <v>2.638724834065272</v>
       </c>
       <c r="C23">
-        <v>0.8275523094775679</v>
+        <v>0.2048343703615672</v>
       </c>
       <c r="D23">
-        <v>0.06218257810562022</v>
+        <v>0.08061111660811804</v>
       </c>
       <c r="E23">
-        <v>0.02484553276365942</v>
+        <v>0.03164388227123638</v>
       </c>
       <c r="F23">
-        <v>3.536160731800067</v>
+        <v>2.756017297932289</v>
       </c>
       <c r="G23">
-        <v>0.0007728677170045942</v>
+        <v>0.0008121137661765643</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,16 +1435,16 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.304900592274251</v>
+        <v>2.414554457416216</v>
       </c>
       <c r="L23">
-        <v>0.2298638781017956</v>
+        <v>0.2230431663414123</v>
       </c>
       <c r="M23">
-        <v>0.8393329443677118</v>
+        <v>0.4913358751872465</v>
       </c>
       <c r="N23">
-        <v>1.656969324424878</v>
+        <v>2.451244040953384</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.44830730614234</v>
+        <v>2.260179726543186</v>
       </c>
       <c r="C24">
-        <v>0.697138574806786</v>
+        <v>0.1751964075636465</v>
       </c>
       <c r="D24">
-        <v>0.06472101261346452</v>
+        <v>0.08468097532956964</v>
       </c>
       <c r="E24">
-        <v>0.02434525219579853</v>
+        <v>0.03041828456227158</v>
       </c>
       <c r="F24">
-        <v>3.093344076462984</v>
+        <v>2.488158229306521</v>
       </c>
       <c r="G24">
-        <v>0.0007877608627015787</v>
+        <v>0.0008235208233331459</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.100484302496739</v>
+        <v>2.052738262829536</v>
       </c>
       <c r="L24">
-        <v>0.20006062999839</v>
+        <v>0.1952715725046659</v>
       </c>
       <c r="M24">
-        <v>0.7138106698554481</v>
+        <v>0.4228577340856319</v>
       </c>
       <c r="N24">
-        <v>1.654196371865154</v>
+        <v>2.418010576809138</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.620461519679054</v>
+        <v>1.866659587265758</v>
       </c>
       <c r="C25">
-        <v>0.5619841195440927</v>
+        <v>0.1441049250953483</v>
       </c>
       <c r="D25">
-        <v>0.06790722506935509</v>
+        <v>0.08910132765177003</v>
       </c>
       <c r="E25">
-        <v>0.02386313014963415</v>
+        <v>0.02922265848015648</v>
       </c>
       <c r="F25">
-        <v>2.648541715232284</v>
+        <v>2.217019194506705</v>
       </c>
       <c r="G25">
-        <v>0.0008041268287092925</v>
+        <v>0.0008361747989501455</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,16 +1529,16 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8893958676680995</v>
+        <v>1.675848677992235</v>
       </c>
       <c r="L25">
-        <v>0.1696012653471897</v>
+        <v>0.1666058557741934</v>
       </c>
       <c r="M25">
-        <v>0.5845603655814671</v>
+        <v>0.3517861130555957</v>
       </c>
       <c r="N25">
-        <v>1.663771285797552</v>
+        <v>2.393336856933075</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_31/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.586789907437179</v>
+        <v>1.017072381679469</v>
       </c>
       <c r="C2">
-        <v>0.1217255249858624</v>
+        <v>0.1423516610319808</v>
       </c>
       <c r="D2">
-        <v>0.0923900367957966</v>
+        <v>0.06674624157298581</v>
       </c>
       <c r="E2">
-        <v>0.02843834934291589</v>
+        <v>0.04175777385432511</v>
       </c>
       <c r="F2">
-        <v>2.029825429790264</v>
+        <v>0.8103874623071334</v>
       </c>
       <c r="G2">
-        <v>0.0008458441454658698</v>
+        <v>0.7360547986049113</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.007240805573084153</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5439587078957544</v>
       </c>
       <c r="K2">
-        <v>1.407114439204122</v>
+        <v>0.588837777908843</v>
       </c>
       <c r="L2">
-        <v>0.146390549174555</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3013376473500031</v>
+        <v>0.9671830104111052</v>
       </c>
       <c r="N2">
-        <v>2.38342575391512</v>
+        <v>0.1615664813272133</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.2227398985715396</v>
+      </c>
+      <c r="P2">
+        <v>1.130255158479905</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.402031139336515</v>
+        <v>0.8868047899168516</v>
       </c>
       <c r="C3">
-        <v>0.1067739462421571</v>
+        <v>0.1281080352406718</v>
       </c>
       <c r="D3">
-        <v>0.09464391217606671</v>
+        <v>0.06293627770050847</v>
       </c>
       <c r="E3">
-        <v>0.02796113666702915</v>
+        <v>0.0409601844823051</v>
       </c>
       <c r="F3">
-        <v>1.90947540042707</v>
+        <v>0.7707815902414623</v>
       </c>
       <c r="G3">
-        <v>0.0008526397914053939</v>
+        <v>0.7054210861169139</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.01010715122331352</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.5351319134772297</v>
       </c>
       <c r="K3">
-        <v>1.229258617511789</v>
+        <v>0.5794310328563483</v>
       </c>
       <c r="L3">
-        <v>0.1331502139452567</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.2680933222894915</v>
+        <v>0.8399293267194139</v>
       </c>
       <c r="N3">
-        <v>2.381268614893145</v>
+        <v>0.1472014568512279</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.1959325503388349</v>
+      </c>
+      <c r="P3">
+        <v>1.168676750957133</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.290641183946974</v>
+        <v>0.8067293696312845</v>
       </c>
       <c r="C4">
-        <v>0.09766890101889203</v>
+        <v>0.1194531216689469</v>
       </c>
       <c r="D4">
-        <v>0.09604140697880403</v>
+        <v>0.06059080357047719</v>
       </c>
       <c r="E4">
-        <v>0.0276932621585706</v>
+        <v>0.0404915451427339</v>
       </c>
       <c r="F4">
-        <v>1.838422310048827</v>
+        <v>0.7472138744802521</v>
       </c>
       <c r="G4">
-        <v>0.0008569388817110846</v>
+        <v>0.6872896073374477</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.012224636177812</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.5301501255953127</v>
       </c>
       <c r="K4">
-        <v>1.121804322954802</v>
+        <v>0.5740344351583175</v>
       </c>
       <c r="L4">
-        <v>0.1252188563582521</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2480796737311799</v>
+        <v>0.7619443937514063</v>
       </c>
       <c r="N4">
-        <v>2.382018566971013</v>
+        <v>0.1385982660334761</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.1795422734898047</v>
+      </c>
+      <c r="P4">
+        <v>1.193039671301335</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.245714758205565</v>
+        <v>0.7733188970031222</v>
       </c>
       <c r="C5">
-        <v>0.0939732726915139</v>
+        <v>0.1161420796977239</v>
       </c>
       <c r="D5">
-        <v>0.09661449031611813</v>
+        <v>0.05967909226508183</v>
       </c>
       <c r="E5">
-        <v>0.02759019557569786</v>
+        <v>0.04028439697123609</v>
       </c>
       <c r="F5">
-        <v>1.81013178936945</v>
+        <v>0.7371400023779415</v>
       </c>
       <c r="G5">
-        <v>0.0008587235520850308</v>
+        <v>0.6793592151572909</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0132625786565006</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.527867951157603</v>
       </c>
       <c r="K5">
-        <v>1.078407592237397</v>
+        <v>0.571376210655604</v>
       </c>
       <c r="L5">
-        <v>0.1220327346127448</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2400149563665046</v>
+        <v>0.7300424489247064</v>
       </c>
       <c r="N5">
-        <v>2.382821839379687</v>
+        <v>0.1352059537350456</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.172795353090887</v>
+      </c>
+      <c r="P5">
+        <v>1.202751486231218</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.23828149201475</v>
+        <v>0.7668521552020593</v>
       </c>
       <c r="C6">
-        <v>0.09336039084790571</v>
+        <v>0.1158348412470502</v>
       </c>
       <c r="D6">
-        <v>0.09670987232781858</v>
+        <v>0.05958397528988968</v>
       </c>
       <c r="E6">
-        <v>0.02757344320579946</v>
+        <v>0.04022419277220202</v>
       </c>
       <c r="F6">
-        <v>1.805472872568103</v>
+        <v>0.7346847499332654</v>
       </c>
       <c r="G6">
-        <v>0.0008590219000073316</v>
+        <v>0.6771926741648429</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.01355567922767609</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.5270574817381259</v>
       </c>
       <c r="K6">
-        <v>1.071223911060429</v>
+        <v>0.5702674401176324</v>
       </c>
       <c r="L6">
-        <v>0.1215063493586541</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.238681055495789</v>
+        <v>0.7245639019643164</v>
       </c>
       <c r="N6">
-        <v>2.382984610186696</v>
+        <v>0.1347215075706316</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.1715743512676795</v>
+      </c>
+      <c r="P6">
+        <v>1.203880912692238</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.290033468096851</v>
+        <v>0.803764814487181</v>
       </c>
       <c r="C7">
-        <v>0.09761900606204676</v>
+        <v>0.120069770823406</v>
       </c>
       <c r="D7">
-        <v>0.09604912100891116</v>
+        <v>0.06073347383688699</v>
       </c>
       <c r="E7">
-        <v>0.02769184777843048</v>
+        <v>0.0404174220638982</v>
       </c>
       <c r="F7">
-        <v>1.838038149215805</v>
+        <v>0.74491037932534</v>
       </c>
       <c r="G7">
-        <v>0.0008569628164612525</v>
+        <v>0.6848345024796885</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.01253597435775511</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.5289239873320071</v>
       </c>
       <c r="K7">
-        <v>1.121217534625202</v>
+        <v>0.5721610353245481</v>
       </c>
       <c r="L7">
-        <v>0.1251757060186165</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2479705533602861</v>
+        <v>0.7610125296108095</v>
       </c>
       <c r="N7">
-        <v>2.382027415640181</v>
+        <v>0.1387594935059369</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.1791728174795146</v>
+      </c>
+      <c r="P7">
+        <v>1.191833475425764</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.522627661848219</v>
+        <v>0.9688043252638465</v>
       </c>
       <c r="C8">
-        <v>0.1165519805570483</v>
+        <v>0.1383052797283</v>
       </c>
       <c r="D8">
-        <v>0.09316445357614622</v>
+        <v>0.06564315274714971</v>
       </c>
       <c r="E8">
-        <v>0.02826844838020026</v>
+        <v>0.04138411020631239</v>
       </c>
       <c r="F8">
-        <v>1.987707280473941</v>
+        <v>0.7936991080639118</v>
       </c>
       <c r="G8">
-        <v>0.0008481616045378489</v>
+        <v>0.7222384352012767</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.008504969699679954</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.5392451567314396</v>
       </c>
       <c r="K8">
-        <v>1.345396421317787</v>
+        <v>0.5830872323228391</v>
       </c>
       <c r="L8">
-        <v>0.1417817095673044</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2897865526982741</v>
+        <v>0.9225915345307669</v>
       </c>
       <c r="N8">
-        <v>2.382236455237148</v>
+        <v>0.1568415479584573</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.213107739511976</v>
+      </c>
+      <c r="P8">
+        <v>1.14163862888698</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.997504765246106</v>
+        <v>1.296647001644914</v>
       </c>
       <c r="C9">
-        <v>0.154483387059841</v>
+        <v>0.1737543259089733</v>
       </c>
       <c r="D9">
-        <v>0.08760756135626213</v>
+        <v>0.07495227917565472</v>
       </c>
       <c r="E9">
-        <v>0.02960969640908928</v>
+        <v>0.04358009919097938</v>
       </c>
       <c r="F9">
-        <v>2.306241194549187</v>
+        <v>0.8996987315402407</v>
       </c>
       <c r="G9">
-        <v>0.0008318608069191681</v>
+        <v>0.8056199187822131</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.003160482224419781</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5652872125324961</v>
       </c>
       <c r="K9">
-        <v>1.801270985544136</v>
+        <v>0.6109880326140029</v>
       </c>
       <c r="L9">
-        <v>0.1761098262008431</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3754018871056743</v>
+        <v>1.242087134765114</v>
       </c>
       <c r="N9">
-        <v>2.400281267632224</v>
+        <v>0.1937885989142671</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.2808247975009692</v>
+      </c>
+      <c r="P9">
+        <v>1.051809594838627</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.361615177427609</v>
+        <v>1.536535333066666</v>
       </c>
       <c r="C10">
-        <v>0.1831593249431052</v>
+        <v>0.2009385565242781</v>
       </c>
       <c r="D10">
-        <v>0.08357430491993689</v>
+        <v>0.08187641235126364</v>
       </c>
       <c r="E10">
-        <v>0.03074034998376263</v>
+        <v>0.04527237180825772</v>
       </c>
       <c r="F10">
-        <v>2.559315344150576</v>
+        <v>0.981152084611324</v>
       </c>
       <c r="G10">
-        <v>0.0008203997807306287</v>
+        <v>0.8699426355326949</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.001443962762451179</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.5863667244701958</v>
       </c>
       <c r="K10">
-        <v>2.149749709956041</v>
+        <v>0.6328113666836899</v>
       </c>
       <c r="L10">
-        <v>0.2026967328421136</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0.441197905023877</v>
+        <v>1.478411218292678</v>
       </c>
       <c r="N10">
-        <v>2.426082026584822</v>
+        <v>0.2223761196334806</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.3310073048774314</v>
+      </c>
+      <c r="P10">
+        <v>0.9893955228509874</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.53150153394796</v>
+        <v>1.641559757194699</v>
       </c>
       <c r="C11">
-        <v>0.1964597991323274</v>
+        <v>0.2146803361378318</v>
       </c>
       <c r="D11">
-        <v>0.08174764214713903</v>
+        <v>0.0853082972377166</v>
       </c>
       <c r="E11">
-        <v>0.03129042134283111</v>
+        <v>0.04595300917895884</v>
       </c>
       <c r="F11">
-        <v>2.679522203111574</v>
+        <v>1.015831610671171</v>
       </c>
       <c r="G11">
-        <v>0.0008152808057305352</v>
+        <v>0.8964413252198256</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.001578277767082525</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5946444494474576</v>
       </c>
       <c r="K11">
-        <v>2.312127054017736</v>
+        <v>0.6403156632310072</v>
       </c>
       <c r="L11">
-        <v>0.2151603820712467</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4719301122666906</v>
+        <v>1.585624320464461</v>
       </c>
       <c r="N11">
-        <v>2.440990461424946</v>
+        <v>0.2360628604803736</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.3535216697970256</v>
+      </c>
+      <c r="P11">
+        <v>0.9601282613052753</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.596531136633928</v>
+        <v>1.68364532508582</v>
       </c>
       <c r="C12">
-        <v>0.201540550595908</v>
+        <v>0.2193199921002673</v>
       </c>
       <c r="D12">
-        <v>0.08105688931455468</v>
+        <v>0.08646391175224011</v>
       </c>
       <c r="E12">
-        <v>0.03150424138855712</v>
+        <v>0.04627648996946121</v>
       </c>
       <c r="F12">
-        <v>2.725859613693615</v>
+        <v>1.031039794906363</v>
       </c>
       <c r="G12">
-        <v>0.0008133544542861266</v>
+        <v>0.9086868198898799</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.001489425540706968</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.598903164005975</v>
       </c>
       <c r="K12">
-        <v>2.374252836674344</v>
+        <v>0.6448257509519166</v>
       </c>
       <c r="L12">
-        <v>0.2199397605123607</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4836986623737332</v>
+        <v>1.626794845758411</v>
       </c>
       <c r="N12">
-        <v>2.447133876091783</v>
+        <v>0.2411166301687615</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.3623280476094308</v>
+      </c>
+      <c r="P12">
+        <v>0.9501989533436301</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.582493368252813</v>
+        <v>1.675039054326618</v>
       </c>
       <c r="C13">
-        <v>0.2004442297848783</v>
+        <v>0.2181968420809994</v>
       </c>
       <c r="D13">
-        <v>0.0812056155669012</v>
+        <v>0.08618548919041302</v>
       </c>
       <c r="E13">
-        <v>0.03145793943072128</v>
+        <v>0.04621904833040169</v>
       </c>
       <c r="F13">
-        <v>2.715842176204092</v>
+        <v>1.028136347285241</v>
       </c>
       <c r="G13">
-        <v>0.0008137688164352452</v>
+        <v>0.9064524053076468</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.00145906480024216</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.5981883077461561</v>
       </c>
       <c r="K13">
-        <v>2.360843192005888</v>
+        <v>0.6441685504668442</v>
       </c>
       <c r="L13">
-        <v>0.2189076702644712</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4811580039440813</v>
+        <v>1.618018314709246</v>
       </c>
       <c r="N13">
-        <v>2.445787922702294</v>
+        <v>0.2399891171613007</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.3604814074047198</v>
+      </c>
+      <c r="P13">
+        <v>0.9525296231855549</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.536837058305082</v>
+        <v>1.645216304844041</v>
       </c>
       <c r="C14">
-        <v>0.1968768655244162</v>
+        <v>0.2150093879850346</v>
       </c>
       <c r="D14">
-        <v>0.08169079530368251</v>
+        <v>0.08539083596387798</v>
       </c>
       <c r="E14">
-        <v>0.03130789949740631</v>
+        <v>0.04598481052235748</v>
       </c>
       <c r="F14">
-        <v>2.683317492379203</v>
+        <v>1.017240543267633</v>
       </c>
       <c r="G14">
-        <v>0.0008151220904709639</v>
+        <v>0.8976196887919912</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.0015494801757443</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.5950806674502473</v>
       </c>
       <c r="K14">
-        <v>2.31722490666894</v>
+        <v>0.6408200460513171</v>
       </c>
       <c r="L14">
-        <v>0.215552348557722</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4728955982093908</v>
+        <v>1.589049607989551</v>
       </c>
       <c r="N14">
-        <v>2.44148564930839</v>
+        <v>0.23646197351529</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.3542673483369683</v>
+      </c>
+      <c r="P14">
+        <v>0.9593931016385682</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.508964768407225</v>
+        <v>1.626051741589833</v>
       </c>
       <c r="C15">
-        <v>0.1946977348389964</v>
+        <v>0.2133025383411962</v>
       </c>
       <c r="D15">
-        <v>0.08198810162068337</v>
+        <v>0.08496218951903955</v>
       </c>
       <c r="E15">
-        <v>0.0312167265386698</v>
+        <v>0.04581744292959655</v>
       </c>
       <c r="F15">
-        <v>2.663504402633905</v>
+        <v>1.009842670130567</v>
       </c>
       <c r="G15">
-        <v>0.0008159525370033949</v>
+        <v>0.8914238964991199</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.001710537833420567</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.5927828755793314</v>
       </c>
       <c r="K15">
-        <v>2.290593015161562</v>
+        <v>0.6381544307886031</v>
       </c>
       <c r="L15">
-        <v>0.2135050939608902</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0.467852180697804</v>
+        <v>1.571132826494051</v>
       </c>
       <c r="N15">
-        <v>2.438916543520207</v>
+        <v>0.2343807346232722</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.3503640788807516</v>
+      </c>
+      <c r="P15">
+        <v>0.9632231433497829</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.35060540019515</v>
+        <v>1.522088036103213</v>
       </c>
       <c r="C16">
-        <v>0.1822958653327191</v>
+        <v>0.2020596534035946</v>
       </c>
       <c r="D16">
-        <v>0.0836938274629766</v>
+        <v>0.08213707259918124</v>
       </c>
       <c r="E16">
-        <v>0.03070515233643789</v>
+        <v>0.04502247428566974</v>
       </c>
       <c r="F16">
-        <v>2.55156903434704</v>
+        <v>0.9726013138220964</v>
       </c>
       <c r="G16">
-        <v>0.0008207360965158628</v>
+        <v>0.861419598654507</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.002204813894940649</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.5824049468756556</v>
       </c>
       <c r="K16">
-        <v>2.139222395951464</v>
+        <v>0.6270488237467404</v>
       </c>
       <c r="L16">
-        <v>0.2018901799979034</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4392069135482686</v>
+        <v>1.469855831029321</v>
       </c>
       <c r="N16">
-        <v>2.425175023158488</v>
+        <v>0.2220967777352314</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.3286944077713301</v>
+      </c>
+      <c r="P16">
+        <v>0.9879638813337266</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.254604312130709</v>
+        <v>1.45840775150711</v>
       </c>
       <c r="C17">
-        <v>0.1747582059541912</v>
+        <v>0.1952166152594828</v>
       </c>
       <c r="D17">
-        <v>0.08474216588248318</v>
+        <v>0.08040327094594346</v>
       </c>
       <c r="E17">
-        <v>0.03040073003712607</v>
+        <v>0.04454269929186161</v>
       </c>
       <c r="F17">
-        <v>2.484261040825245</v>
+        <v>0.9500974619067932</v>
       </c>
       <c r="G17">
-        <v>0.0008236938711259396</v>
+        <v>0.843330052897528</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.002649924120484926</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.5762167548397628</v>
       </c>
       <c r="K17">
-        <v>2.047404600664038</v>
+        <v>0.6204047765757679</v>
       </c>
       <c r="L17">
-        <v>0.1948638330512864</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4218498814695408</v>
+        <v>1.407899405218842</v>
       </c>
       <c r="N17">
-        <v>2.417585777110901</v>
+        <v>0.2146480655040648</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.3154500207899389</v>
+      </c>
+      <c r="P17">
+        <v>1.003405038600189</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.199781477302849</v>
+        <v>1.424098612915316</v>
       </c>
       <c r="C18">
-        <v>0.1704463188509209</v>
+        <v>0.1906882178150795</v>
       </c>
       <c r="D18">
-        <v>0.08534591550646198</v>
+        <v>0.07925925791574429</v>
       </c>
       <c r="E18">
-        <v>0.03022897264376567</v>
+        <v>0.04433185149932406</v>
       </c>
       <c r="F18">
-        <v>2.446019920125252</v>
+        <v>0.939180918661549</v>
       </c>
       <c r="G18">
-        <v>0.0008254041182408736</v>
+        <v>0.8350954915296001</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.002685280988487193</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.5737593701562247</v>
       </c>
       <c r="K18">
-        <v>1.994950612976453</v>
+        <v>0.6182391237921721</v>
       </c>
       <c r="L18">
-        <v>0.1908567776599455</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4119409653676271</v>
+        <v>1.372791256082508</v>
       </c>
       <c r="N18">
-        <v>2.41351641261177</v>
+        <v>0.2102102736593991</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.3081037292662998</v>
+      </c>
+      <c r="P18">
+        <v>1.01340529262702</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.181284672205777</v>
+        <v>1.410723412434265</v>
       </c>
       <c r="C19">
-        <v>0.1689902248000834</v>
+        <v>0.1896289096834778</v>
       </c>
       <c r="D19">
-        <v>0.08555047352905287</v>
+        <v>0.07898477333653631</v>
       </c>
       <c r="E19">
-        <v>0.03017138085036564</v>
+        <v>0.04421290942429579</v>
       </c>
       <c r="F19">
-        <v>2.433150808532872</v>
+        <v>0.9340343216505289</v>
       </c>
       <c r="G19">
-        <v>0.0008259847707423607</v>
+        <v>0.8307380895007128</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.002911287087612457</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.572136877200748</v>
       </c>
       <c r="K19">
-        <v>1.977249547479801</v>
+        <v>0.6162846270794731</v>
       </c>
       <c r="L19">
-        <v>0.1895057607911639</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4085982999082063</v>
+        <v>1.360551836548694</v>
       </c>
       <c r="N19">
-        <v>2.41218818943517</v>
+        <v>0.208854936511031</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.3054227844028858</v>
+      </c>
+      <c r="P19">
+        <v>1.016017182974718</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.264782371687204</v>
+        <v>1.465362882197951</v>
       </c>
       <c r="C20">
-        <v>0.1755581117453744</v>
+        <v>0.1958950977586511</v>
       </c>
       <c r="D20">
-        <v>0.08463048988272881</v>
+        <v>0.0805763457789439</v>
       </c>
       <c r="E20">
-        <v>0.0304327881644646</v>
+        <v>0.0445983620716035</v>
       </c>
       <c r="F20">
-        <v>2.491376572289838</v>
+        <v>0.9526300450149421</v>
       </c>
       <c r="G20">
-        <v>0.0008233780886912634</v>
+        <v>0.8454055723008054</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.002575875671345429</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.5769503550002497</v>
       </c>
       <c r="K20">
-        <v>2.057141220686248</v>
+        <v>0.6212309792970174</v>
       </c>
       <c r="L20">
-        <v>0.1956082027311652</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4236897593431337</v>
+        <v>1.414525517046258</v>
       </c>
       <c r="N20">
-        <v>2.418362765050119</v>
+        <v>0.2154233228221045</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.3168781432116461</v>
+      </c>
+      <c r="P20">
+        <v>1.001831324474011</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.550227767834087</v>
+        <v>1.651399317178431</v>
       </c>
       <c r="C21">
-        <v>0.1979234256858433</v>
+        <v>0.2166301878934433</v>
       </c>
       <c r="D21">
-        <v>0.08154826166111917</v>
+        <v>0.08578960205715447</v>
       </c>
       <c r="E21">
-        <v>0.03135181682296384</v>
+        <v>0.04598394186269061</v>
       </c>
       <c r="F21">
-        <v>2.69284785150063</v>
+        <v>1.018303284767697</v>
       </c>
       <c r="G21">
-        <v>0.0008147242857211255</v>
+        <v>0.8979076871975877</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.001790987910520236</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.5948320913791463</v>
       </c>
       <c r="K21">
-        <v>2.330018661655828</v>
+        <v>0.6400190114166691</v>
       </c>
       <c r="L21">
-        <v>0.2165362128148871</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4753187804492143</v>
+        <v>1.597022705208218</v>
       </c>
       <c r="N21">
-        <v>2.442735462369313</v>
+        <v>0.2377022661956119</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.3558046125304131</v>
+      </c>
+      <c r="P21">
+        <v>0.9562586151461261</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.74089394154106</v>
+        <v>1.776625811505482</v>
       </c>
       <c r="C22">
-        <v>0.2128018347565614</v>
+        <v>0.2295076917521186</v>
       </c>
       <c r="D22">
-        <v>0.07953937717345916</v>
+        <v>0.088985792986783</v>
       </c>
       <c r="E22">
-        <v>0.03198483481119219</v>
+        <v>0.04700454804794418</v>
       </c>
       <c r="F22">
-        <v>2.829334094584937</v>
+        <v>1.065118632346781</v>
       </c>
       <c r="G22">
-        <v>0.0008091381965290513</v>
+        <v>0.9362427435706877</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.001414435696873717</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.6086011110206044</v>
       </c>
       <c r="K22">
-        <v>2.512117769181174</v>
+        <v>0.6551406275440641</v>
       </c>
       <c r="L22">
-        <v>0.2305651989125437</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5098329793796452</v>
+        <v>1.717608465373445</v>
       </c>
       <c r="N22">
-        <v>2.461589390692467</v>
+        <v>0.2523030729410465</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.3817857730755847</v>
+      </c>
+      <c r="P22">
+        <v>0.928778787865042</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.638724834065272</v>
+        <v>1.712861302800633</v>
       </c>
       <c r="C23">
-        <v>0.2048343703615672</v>
+        <v>0.2217891366465778</v>
       </c>
       <c r="D23">
-        <v>0.08061111660811804</v>
+        <v>0.08708041705742886</v>
       </c>
       <c r="E23">
-        <v>0.03164388227123638</v>
+        <v>0.04654120411140639</v>
       </c>
       <c r="F23">
-        <v>2.756017297932289</v>
+        <v>1.042590411889094</v>
       </c>
       <c r="G23">
-        <v>0.0008121137661765643</v>
+        <v>0.9184532147417031</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001262356593692893</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.6025912986054038</v>
       </c>
       <c r="K23">
-        <v>2.414554457416216</v>
+        <v>0.6491645372011448</v>
       </c>
       <c r="L23">
-        <v>0.2230431663414123</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4913358751872465</v>
+        <v>1.653829511736433</v>
       </c>
       <c r="N23">
-        <v>2.451244040953384</v>
+        <v>0.2442334357455138</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.3682485496429351</v>
+      </c>
+      <c r="P23">
+        <v>0.9447028316306643</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.260179726543186</v>
+        <v>1.467066674906249</v>
       </c>
       <c r="C24">
-        <v>0.1751964075636465</v>
+        <v>0.1942972541883847</v>
       </c>
       <c r="D24">
-        <v>0.08468097532956964</v>
+        <v>0.0801880683779288</v>
       </c>
       <c r="E24">
-        <v>0.03041828456227158</v>
+        <v>0.04470507740270158</v>
       </c>
       <c r="F24">
-        <v>2.488158229306521</v>
+        <v>0.9555234688558869</v>
       </c>
       <c r="G24">
-        <v>0.0008235208233331459</v>
+        <v>0.8488284014185155</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.002078184298230035</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.5788179483483304</v>
       </c>
       <c r="K24">
-        <v>2.052738262829536</v>
+        <v>0.6242393790394658</v>
       </c>
       <c r="L24">
-        <v>0.1952715725046659</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4228577340856319</v>
+        <v>1.412525611463309</v>
       </c>
       <c r="N24">
-        <v>2.418010576809138</v>
+        <v>0.2146830332553691</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.3167723280892858</v>
+      </c>
+      <c r="P24">
+        <v>1.004708141687029</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.866659587265758</v>
+        <v>1.203280098364075</v>
       </c>
       <c r="C25">
-        <v>0.1441049250953483</v>
+        <v>0.1652772431422562</v>
       </c>
       <c r="D25">
-        <v>0.08910132765177003</v>
+        <v>0.07272967593181079</v>
       </c>
       <c r="E25">
-        <v>0.02922265848015648</v>
+        <v>0.04283824234727795</v>
       </c>
       <c r="F25">
-        <v>2.217019194506705</v>
+        <v>0.8663373107905556</v>
       </c>
       <c r="G25">
-        <v>0.0008361747989501455</v>
+        <v>0.7781293312625621</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.004737228349917189</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5556747302507858</v>
       </c>
       <c r="K25">
-        <v>1.675848677992235</v>
+        <v>0.5997697242205362</v>
       </c>
       <c r="L25">
-        <v>0.1666058557741934</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3517861130555957</v>
+        <v>1.154442855927158</v>
       </c>
       <c r="N25">
-        <v>2.393336856933075</v>
+        <v>0.1839511366020332</v>
       </c>
       <c r="O25">
+        <v>0.2618995727497406</v>
+      </c>
+      <c r="P25">
+        <v>1.073199234349893</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_31/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_31/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.017072381679469</v>
+        <v>0.9472810853540921</v>
       </c>
       <c r="C2">
-        <v>0.1423516610319808</v>
+        <v>0.1494066319819893</v>
       </c>
       <c r="D2">
-        <v>0.06674624157298581</v>
+        <v>0.06871876880340011</v>
       </c>
       <c r="E2">
-        <v>0.04175777385432511</v>
+        <v>0.03796719880948984</v>
       </c>
       <c r="F2">
-        <v>0.8103874623071334</v>
+        <v>0.7320654145624061</v>
       </c>
       <c r="G2">
-        <v>0.7360547986049113</v>
+        <v>0.6363067760985075</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.007240805573084153</v>
+        <v>0.005090549110001064</v>
       </c>
       <c r="J2">
-        <v>0.5439587078957544</v>
+        <v>0.5168212069746119</v>
       </c>
       <c r="K2">
-        <v>0.588837777908843</v>
+        <v>0.5104769075227402</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2266282814281233</v>
       </c>
       <c r="M2">
-        <v>0.9671830104111052</v>
+        <v>0.1595537382851795</v>
       </c>
       <c r="N2">
-        <v>0.1615664813272133</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0.2227398985715396</v>
+        <v>0.9583379434850485</v>
       </c>
       <c r="P2">
-        <v>1.130255158479905</v>
+        <v>0.1697276549251825</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.2143334048229626</v>
+      </c>
+      <c r="R2">
+        <v>1.051510017786624</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8868047899168516</v>
+        <v>0.82869200063476</v>
       </c>
       <c r="C3">
-        <v>0.1281080352406718</v>
+        <v>0.1313621085394345</v>
       </c>
       <c r="D3">
-        <v>0.06293627770050847</v>
+        <v>0.06372613538739813</v>
       </c>
       <c r="E3">
-        <v>0.0409601844823051</v>
+        <v>0.03741174228172817</v>
       </c>
       <c r="F3">
-        <v>0.7707815902414623</v>
+        <v>0.6998382368715212</v>
       </c>
       <c r="G3">
-        <v>0.7054210861169139</v>
+        <v>0.6157936995870585</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.01010715122331352</v>
+        <v>0.00713589274616</v>
       </c>
       <c r="J3">
-        <v>0.5351319134772297</v>
+        <v>0.5069944587324784</v>
       </c>
       <c r="K3">
-        <v>0.5794310328563483</v>
+        <v>0.5061372752788245</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2295299704259719</v>
       </c>
       <c r="M3">
-        <v>0.8399293267194139</v>
+        <v>0.1547710007890508</v>
       </c>
       <c r="N3">
-        <v>0.1472014568512279</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.1959325503388349</v>
+        <v>0.8336046768209258</v>
       </c>
       <c r="P3">
-        <v>1.168676750957133</v>
+        <v>0.1544982021582726</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.1886833430002746</v>
+      </c>
+      <c r="R3">
+        <v>1.089250889218503</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8067293696312845</v>
+        <v>0.755526460383777</v>
       </c>
       <c r="C4">
-        <v>0.1194531216689469</v>
+        <v>0.1204528712939918</v>
       </c>
       <c r="D4">
-        <v>0.06059080357047719</v>
+        <v>0.0606677698379201</v>
       </c>
       <c r="E4">
-        <v>0.0404915451427339</v>
+        <v>0.03708715570959775</v>
       </c>
       <c r="F4">
-        <v>0.7472138744802521</v>
+        <v>0.6805815007215941</v>
       </c>
       <c r="G4">
-        <v>0.6872896073374477</v>
+        <v>0.6038378023307018</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.012224636177812</v>
+        <v>0.008674310044713085</v>
       </c>
       <c r="J4">
-        <v>0.5301501255953127</v>
+        <v>0.5010662119168501</v>
       </c>
       <c r="K4">
-        <v>0.5740344351583175</v>
+        <v>0.503692229000535</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2312679831862567</v>
       </c>
       <c r="M4">
-        <v>0.7619443937514063</v>
+        <v>0.1525657162470822</v>
       </c>
       <c r="N4">
-        <v>0.1385982660334761</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0.1795422734898047</v>
+        <v>0.7570392532846029</v>
       </c>
       <c r="P4">
-        <v>1.193039671301335</v>
+        <v>0.145380343240376</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.1729613259997009</v>
+      </c>
+      <c r="R4">
+        <v>1.113146048816509</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7733188970031222</v>
+        <v>0.7249067300373326</v>
       </c>
       <c r="C5">
-        <v>0.1161420796977239</v>
+        <v>0.1162667047183277</v>
       </c>
       <c r="D5">
-        <v>0.05967909226508183</v>
+        <v>0.05947245022490222</v>
       </c>
       <c r="E5">
-        <v>0.04028439697123609</v>
+        <v>0.03693934583226088</v>
       </c>
       <c r="F5">
-        <v>0.7371400023779415</v>
+        <v>0.6722536677958928</v>
       </c>
       <c r="G5">
-        <v>0.6793592151572909</v>
+        <v>0.5984769995395993</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0132625786565006</v>
+        <v>0.009468598881391621</v>
       </c>
       <c r="J5">
-        <v>0.527867951157603</v>
+        <v>0.4983308913355131</v>
       </c>
       <c r="K5">
-        <v>0.571376210655604</v>
+        <v>0.5022537530869471</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.231733209511102</v>
       </c>
       <c r="M5">
-        <v>0.7300424489247064</v>
+        <v>0.1517093690967659</v>
       </c>
       <c r="N5">
-        <v>0.1352059537350456</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0.172795353090887</v>
+        <v>0.7256901194240726</v>
       </c>
       <c r="P5">
-        <v>1.202751486231218</v>
+        <v>0.1417823571539074</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.1664794820384792</v>
+      </c>
+      <c r="R5">
+        <v>1.122739760584004</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7668521552020593</v>
+        <v>0.7189459367486108</v>
       </c>
       <c r="C6">
-        <v>0.1158348412470502</v>
+        <v>0.1158448335977909</v>
       </c>
       <c r="D6">
-        <v>0.05958397528988968</v>
+        <v>0.05933492465190682</v>
       </c>
       <c r="E6">
-        <v>0.04022419277220202</v>
+        <v>0.03689109032926208</v>
       </c>
       <c r="F6">
-        <v>0.7346847499332654</v>
+        <v>0.6701371947490173</v>
       </c>
       <c r="G6">
-        <v>0.6771926741648429</v>
+        <v>0.5968133436295489</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.01355567922767609</v>
+        <v>0.009734341215530407</v>
       </c>
       <c r="J6">
-        <v>0.5270574817381259</v>
+        <v>0.4974570280207899</v>
       </c>
       <c r="K6">
-        <v>0.5702674401176324</v>
+        <v>0.501413850781752</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2315272588095389</v>
       </c>
       <c r="M6">
-        <v>0.7245639019643164</v>
+        <v>0.1514068633635599</v>
       </c>
       <c r="N6">
-        <v>0.1347215075706316</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1715743512676795</v>
+        <v>0.7203067189247463</v>
       </c>
       <c r="P6">
-        <v>1.203880912692238</v>
+        <v>0.1412639264714528</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.165305393574716</v>
+      </c>
+      <c r="R6">
+        <v>1.123952871568717</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.803764814487181</v>
+        <v>0.7521621385508581</v>
       </c>
       <c r="C7">
-        <v>0.120069770823406</v>
+        <v>0.1208138946958428</v>
       </c>
       <c r="D7">
-        <v>0.06073347383688699</v>
+        <v>0.06093010613759731</v>
       </c>
       <c r="E7">
-        <v>0.0404174220638982</v>
+        <v>0.03705214095490916</v>
       </c>
       <c r="F7">
-        <v>0.74491037932534</v>
+        <v>0.6771478613437765</v>
       </c>
       <c r="G7">
-        <v>0.6848345024796885</v>
+        <v>0.6046530295790546</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.01253597435775511</v>
+        <v>0.009029087777140177</v>
       </c>
       <c r="J7">
-        <v>0.5289239873320071</v>
+        <v>0.4945189427464243</v>
       </c>
       <c r="K7">
-        <v>0.5721610353245481</v>
+        <v>0.5013135070256354</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2301934299219006</v>
       </c>
       <c r="M7">
-        <v>0.7610125296108095</v>
+        <v>0.1518619851442509</v>
       </c>
       <c r="N7">
-        <v>0.1387594935059369</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0.1791728174795146</v>
+        <v>0.7550662965183221</v>
       </c>
       <c r="P7">
-        <v>1.191833475425764</v>
+        <v>0.145507142764103</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.1725045254795852</v>
+      </c>
+      <c r="R7">
+        <v>1.111715581661809</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9688043252638465</v>
+        <v>0.90137800233029</v>
       </c>
       <c r="C8">
-        <v>0.1383052797283</v>
+        <v>0.14304794900535</v>
       </c>
       <c r="D8">
-        <v>0.06564315274714971</v>
+        <v>0.06760224204297316</v>
       </c>
       <c r="E8">
-        <v>0.04138411020631239</v>
+        <v>0.03779451629150898</v>
       </c>
       <c r="F8">
-        <v>0.7936991080639118</v>
+        <v>0.7138725049529171</v>
       </c>
       <c r="G8">
-        <v>0.7222384352012767</v>
+        <v>0.6364006946759133</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.008504969699679954</v>
+        <v>0.006159920593599821</v>
       </c>
       <c r="J8">
-        <v>0.5392451567314396</v>
+        <v>0.4943646739602769</v>
       </c>
       <c r="K8">
-        <v>0.5830872323228391</v>
+        <v>0.5044400098261228</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2257176213581964</v>
       </c>
       <c r="M8">
-        <v>0.9225915345307669</v>
+        <v>0.1562937555950228</v>
       </c>
       <c r="N8">
-        <v>0.1568415479584573</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.213107739511976</v>
+        <v>0.9110956646546526</v>
       </c>
       <c r="P8">
-        <v>1.14163862888698</v>
+        <v>0.1645944619578614</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.2047846008864553</v>
+      </c>
+      <c r="R8">
+        <v>1.061508930530341</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.296647001644914</v>
+        <v>1.197785534440897</v>
       </c>
       <c r="C9">
-        <v>0.1737543259089733</v>
+        <v>0.1880085390598367</v>
       </c>
       <c r="D9">
-        <v>0.07495227917565472</v>
+        <v>0.08004741602798049</v>
       </c>
       <c r="E9">
-        <v>0.04358009919097938</v>
+        <v>0.03938301619071716</v>
       </c>
       <c r="F9">
-        <v>0.8996987315402407</v>
+        <v>0.7987942536928969</v>
       </c>
       <c r="G9">
-        <v>0.8056199187822131</v>
+        <v>0.6969116224390746</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.003160482224419781</v>
+        <v>0.002358325019315544</v>
       </c>
       <c r="J9">
-        <v>0.5652872125324961</v>
+        <v>0.5160573841808684</v>
       </c>
       <c r="K9">
-        <v>0.6109880326140029</v>
+        <v>0.5179309894098907</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2190160167102349</v>
       </c>
       <c r="M9">
-        <v>1.242087134765114</v>
+        <v>0.1725960571884571</v>
       </c>
       <c r="N9">
-        <v>0.1937885989142671</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0.2808247975009692</v>
+        <v>1.222399941763314</v>
       </c>
       <c r="P9">
-        <v>1.051809594838627</v>
+        <v>0.2037498861888452</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.2692397842423837</v>
+      </c>
+      <c r="R9">
+        <v>0.9725307525538032</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.536535333066666</v>
+        <v>1.40966671995298</v>
       </c>
       <c r="C10">
-        <v>0.2009385565242781</v>
+        <v>0.2206323655948097</v>
       </c>
       <c r="D10">
-        <v>0.08187641235126364</v>
+        <v>0.09007262574361619</v>
       </c>
       <c r="E10">
-        <v>0.04527237180825772</v>
+        <v>0.04080185871398712</v>
       </c>
       <c r="F10">
-        <v>0.981152084611324</v>
+        <v>0.8560177280342316</v>
       </c>
       <c r="G10">
-        <v>0.8699426355326949</v>
+        <v>0.7626297612477941</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.001443962762451179</v>
+        <v>0.001358086370617073</v>
       </c>
       <c r="J10">
-        <v>0.5863667244701958</v>
+        <v>0.5025989321327131</v>
       </c>
       <c r="K10">
-        <v>0.6328113666836899</v>
+        <v>0.5243805967513282</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2122113789737021</v>
       </c>
       <c r="M10">
-        <v>1.478411218292678</v>
+        <v>0.1863942057250405</v>
       </c>
       <c r="N10">
-        <v>0.2223761196334806</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0.3310073048774314</v>
+        <v>1.44537896015774</v>
       </c>
       <c r="P10">
-        <v>0.9893955228509874</v>
+        <v>0.2338277087570049</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.3161532006232619</v>
+      </c>
+      <c r="R10">
+        <v>0.9084094096009316</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.641559757194699</v>
+        <v>1.495720815260199</v>
       </c>
       <c r="C11">
-        <v>0.2146803361378318</v>
+        <v>0.2335116902193732</v>
       </c>
       <c r="D11">
-        <v>0.0853082972377166</v>
+        <v>0.0962728126319945</v>
       </c>
       <c r="E11">
-        <v>0.04595300917895884</v>
+        <v>0.04171693282918731</v>
       </c>
       <c r="F11">
-        <v>1.015831610671171</v>
+        <v>0.8664116807352826</v>
       </c>
       <c r="G11">
-        <v>0.8964413252198256</v>
+        <v>0.8235498473415817</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.001578277767082525</v>
+        <v>0.001786596718632794</v>
       </c>
       <c r="J11">
-        <v>0.5946444494474576</v>
+        <v>0.4478210589766718</v>
       </c>
       <c r="K11">
-        <v>0.6403156632310072</v>
+        <v>0.5181153119785833</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2058557237789067</v>
       </c>
       <c r="M11">
-        <v>1.585624320464461</v>
+        <v>0.1895566870122174</v>
       </c>
       <c r="N11">
-        <v>0.2360628604803736</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0.3535216697970256</v>
+        <v>1.534821991262874</v>
       </c>
       <c r="P11">
-        <v>0.9601282613052753</v>
+        <v>0.2478439323536747</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.3360333346245383</v>
+      </c>
+      <c r="R11">
+        <v>0.8753985022847939</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.68364532508582</v>
+        <v>1.529606733847373</v>
       </c>
       <c r="C12">
-        <v>0.2193199921002673</v>
+        <v>0.2373050799431127</v>
       </c>
       <c r="D12">
-        <v>0.08646391175224011</v>
+        <v>0.09864343015510002</v>
       </c>
       <c r="E12">
-        <v>0.04627648996946121</v>
+        <v>0.04217206606377921</v>
       </c>
       <c r="F12">
-        <v>1.031039794906363</v>
+        <v>0.8705018159932223</v>
       </c>
       <c r="G12">
-        <v>0.9086868198898799</v>
+        <v>0.8535065857704751</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.001489425540706968</v>
+        <v>0.001745532031526054</v>
       </c>
       <c r="J12">
-        <v>0.598903164005975</v>
+        <v>0.4239682981677362</v>
       </c>
       <c r="K12">
-        <v>0.6448257509519166</v>
+        <v>0.5162680781796212</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2036677342791613</v>
       </c>
       <c r="M12">
-        <v>1.626794845758411</v>
+        <v>0.1910114346933902</v>
       </c>
       <c r="N12">
-        <v>0.2411166301687615</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0.3623280476094308</v>
+        <v>1.567709532321032</v>
       </c>
       <c r="P12">
-        <v>0.9501989533436301</v>
+        <v>0.2529751145073504</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.343674379918383</v>
+      </c>
+      <c r="R12">
+        <v>0.863329195875588</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.675039054326618</v>
+        <v>1.52277349841026</v>
       </c>
       <c r="C13">
-        <v>0.2181968420809994</v>
+        <v>0.2363689412607926</v>
       </c>
       <c r="D13">
-        <v>0.08618548919041302</v>
+        <v>0.09809034805431338</v>
       </c>
       <c r="E13">
-        <v>0.04621904833040169</v>
+        <v>0.04208293372366789</v>
       </c>
       <c r="F13">
-        <v>1.028136347285241</v>
+        <v>0.8700301079676365</v>
       </c>
       <c r="G13">
-        <v>0.9064524053076468</v>
+        <v>0.8472065094157415</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.00145906480024216</v>
+        <v>0.001696814446640715</v>
       </c>
       <c r="J13">
-        <v>0.5981883077461561</v>
+        <v>0.429391995066041</v>
       </c>
       <c r="K13">
-        <v>0.6441685504668442</v>
+        <v>0.5169689004453346</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.204241882635575</v>
       </c>
       <c r="M13">
-        <v>1.618018314709246</v>
+        <v>0.1908199764184388</v>
       </c>
       <c r="N13">
-        <v>0.2399891171613007</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0.3604814074047198</v>
+        <v>1.560782081731077</v>
       </c>
       <c r="P13">
-        <v>0.9525296231855549</v>
+        <v>0.2518330848857886</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3420833198296691</v>
+      </c>
+      <c r="R13">
+        <v>0.8660516317832823</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.645216304844041</v>
+        <v>1.49870693220285</v>
       </c>
       <c r="C14">
-        <v>0.2150093879850346</v>
+        <v>0.2337733910066646</v>
       </c>
       <c r="D14">
-        <v>0.08539083596387798</v>
+        <v>0.09644969884398336</v>
       </c>
       <c r="E14">
-        <v>0.04598481052235748</v>
+        <v>0.04175808654978574</v>
       </c>
       <c r="F14">
-        <v>1.017240543267633</v>
+        <v>0.866924254872103</v>
       </c>
       <c r="G14">
-        <v>0.8976196887919912</v>
+        <v>0.8260726586998146</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.0015494801757443</v>
+        <v>0.00175829304074604</v>
       </c>
       <c r="J14">
-        <v>0.5950806674502473</v>
+        <v>0.445990490395431</v>
       </c>
       <c r="K14">
-        <v>0.6408200460513171</v>
+        <v>0.5180935597012919</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2057202575170045</v>
       </c>
       <c r="M14">
-        <v>1.589049607989551</v>
+        <v>0.1897283500332101</v>
       </c>
       <c r="N14">
-        <v>0.23646197351529</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0.3542673483369683</v>
+        <v>1.537595243902274</v>
       </c>
       <c r="P14">
-        <v>0.9593931016385682</v>
+        <v>0.2482503744054156</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.3366852826040017</v>
+      </c>
+      <c r="R14">
+        <v>0.8744596029643272</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.626051741589833</v>
+        <v>1.483015407032639</v>
       </c>
       <c r="C15">
-        <v>0.2133025383411962</v>
+        <v>0.2324032336433248</v>
       </c>
       <c r="D15">
-        <v>0.08496218951903955</v>
+        <v>0.0955354670463322</v>
       </c>
       <c r="E15">
-        <v>0.04581744292959655</v>
+        <v>0.04154397309031488</v>
       </c>
       <c r="F15">
-        <v>1.009842670130567</v>
+        <v>0.8641450913473534</v>
       </c>
       <c r="G15">
-        <v>0.8914238964991199</v>
+        <v>0.8130540454327502</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.001710537833420567</v>
+        <v>0.001917155076057497</v>
       </c>
       <c r="J15">
-        <v>0.5927828755793314</v>
+        <v>0.4553921585023204</v>
       </c>
       <c r="K15">
-        <v>0.6381544307886031</v>
+        <v>0.5181455734690132</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2064075434230226</v>
       </c>
       <c r="M15">
-        <v>1.571132826494051</v>
+        <v>0.1888085401297488</v>
       </c>
       <c r="N15">
-        <v>0.2343807346232722</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0.3503640788807516</v>
+        <v>1.523025735581996</v>
       </c>
       <c r="P15">
-        <v>0.9632231433497829</v>
+        <v>0.2461288891919651</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.3332659567332499</v>
+      </c>
+      <c r="R15">
+        <v>0.8793458601337054</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.522088036103213</v>
+        <v>1.396843203599985</v>
       </c>
       <c r="C16">
-        <v>0.2020596534035946</v>
+        <v>0.2220339556411659</v>
       </c>
       <c r="D16">
-        <v>0.08213707259918124</v>
+        <v>0.09023415543190794</v>
       </c>
       <c r="E16">
-        <v>0.04502247428566974</v>
+        <v>0.04056255380357854</v>
       </c>
       <c r="F16">
-        <v>0.9726013138220964</v>
+        <v>0.8494101215439542</v>
       </c>
       <c r="G16">
-        <v>0.861419598654507</v>
+        <v>0.7530566450926131</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.002204813894940649</v>
+        <v>0.002239125466941161</v>
       </c>
       <c r="J16">
-        <v>0.5824049468756556</v>
+        <v>0.5026182604353409</v>
       </c>
       <c r="K16">
-        <v>0.6270488237467404</v>
+        <v>0.5201581235386143</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2109744253874872</v>
       </c>
       <c r="M16">
-        <v>1.469855831029321</v>
+        <v>0.1843618384457208</v>
       </c>
       <c r="N16">
-        <v>0.2220967777352314</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0.3286944077713301</v>
+        <v>1.437845893920951</v>
       </c>
       <c r="P16">
-        <v>0.9879638813337266</v>
+        <v>0.2335215945961409</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.3140303450105932</v>
+      </c>
+      <c r="R16">
+        <v>0.908360770782334</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.45840775150711</v>
+        <v>1.342617155642643</v>
       </c>
       <c r="C17">
-        <v>0.1952166152594828</v>
+        <v>0.2149717715587371</v>
       </c>
       <c r="D17">
-        <v>0.08040327094594346</v>
+        <v>0.08727953236952857</v>
       </c>
       <c r="E17">
-        <v>0.04454269929186161</v>
+        <v>0.04004664505297484</v>
       </c>
       <c r="F17">
-        <v>0.9500974619067932</v>
+        <v>0.8377301514195921</v>
       </c>
       <c r="G17">
-        <v>0.843330052897528</v>
+        <v>0.7242185740154383</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.002649924120484926</v>
+        <v>0.002544620911667295</v>
       </c>
       <c r="J17">
-        <v>0.5762167548397628</v>
+        <v>0.5225969219675477</v>
       </c>
       <c r="K17">
-        <v>0.6204047765757679</v>
+        <v>0.5199829222747141</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2132913695195882</v>
       </c>
       <c r="M17">
-        <v>1.407899405218842</v>
+        <v>0.1811991323425417</v>
       </c>
       <c r="N17">
-        <v>0.2146480655040648</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0.3154500207899389</v>
+        <v>1.383172726624423</v>
       </c>
       <c r="P17">
-        <v>1.003405038600189</v>
+        <v>0.2257968549852478</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.3020171117406178</v>
+      </c>
+      <c r="R17">
+        <v>0.9256905692543054</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.424098612915316</v>
+        <v>1.313091981751938</v>
       </c>
       <c r="C18">
-        <v>0.1906882178150795</v>
+        <v>0.2099582184179241</v>
       </c>
       <c r="D18">
-        <v>0.07925925791574429</v>
+        <v>0.08551964703995196</v>
       </c>
       <c r="E18">
-        <v>0.04433185149932406</v>
+        <v>0.03983525163039658</v>
       </c>
       <c r="F18">
-        <v>0.939180918661549</v>
+        <v>0.8318232663789189</v>
       </c>
       <c r="G18">
-        <v>0.8350954915296001</v>
+        <v>0.7121459549445177</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.002685280988487193</v>
+        <v>0.002439135980700335</v>
       </c>
       <c r="J18">
-        <v>0.5737593701562247</v>
+        <v>0.531352777756922</v>
       </c>
       <c r="K18">
-        <v>0.6182391237921721</v>
+        <v>0.5207628920589542</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2149493098427797</v>
       </c>
       <c r="M18">
-        <v>1.372791256082508</v>
+        <v>0.179770077956789</v>
       </c>
       <c r="N18">
-        <v>0.2102102736593991</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0.3081037292662998</v>
+        <v>1.351328560073739</v>
       </c>
       <c r="P18">
-        <v>1.01340529262702</v>
+        <v>0.2211732777766855</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.2952766651102579</v>
+      </c>
+      <c r="R18">
+        <v>0.9361624774469064</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.410723412434265</v>
+        <v>1.301363578871161</v>
       </c>
       <c r="C19">
-        <v>0.1896289096834778</v>
+        <v>0.2087592478722513</v>
       </c>
       <c r="D19">
-        <v>0.07898477333653631</v>
+        <v>0.08506514722787273</v>
       </c>
       <c r="E19">
-        <v>0.04421290942429579</v>
+        <v>0.03972522663208977</v>
       </c>
       <c r="F19">
-        <v>0.9340343216505289</v>
+        <v>0.828323758166519</v>
       </c>
       <c r="G19">
-        <v>0.8307380895007128</v>
+        <v>0.70706313388132</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.002911287087612457</v>
+        <v>0.002653552642877699</v>
       </c>
       <c r="J19">
-        <v>0.572136877200748</v>
+        <v>0.5329403639009911</v>
       </c>
       <c r="K19">
-        <v>0.6162846270794731</v>
+        <v>0.5198781366564731</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2150888524590719</v>
       </c>
       <c r="M19">
-        <v>1.360551836548694</v>
+        <v>0.1788519169719862</v>
       </c>
       <c r="N19">
-        <v>0.208854936511031</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0.3054227844028858</v>
+        <v>1.34005772083367</v>
       </c>
       <c r="P19">
-        <v>1.016017182974718</v>
+        <v>0.219750935397002</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.2927943139223146</v>
+      </c>
+      <c r="R19">
+        <v>0.939140068422109</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.465362882197951</v>
+        <v>1.348607673083535</v>
       </c>
       <c r="C20">
-        <v>0.1958950977586511</v>
+        <v>0.2156946313899795</v>
       </c>
       <c r="D20">
-        <v>0.0805763457789439</v>
+        <v>0.08757063445736435</v>
       </c>
       <c r="E20">
-        <v>0.0445983620716035</v>
+        <v>0.04010289086116536</v>
       </c>
       <c r="F20">
-        <v>0.9526300450149421</v>
+        <v>0.8392071901550224</v>
       </c>
       <c r="G20">
-        <v>0.8454055723008054</v>
+        <v>0.7271535536638254</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.002575875671345429</v>
+        <v>0.002482586399410458</v>
       </c>
       <c r="J20">
-        <v>0.5769503550002497</v>
+        <v>0.5209173494345691</v>
       </c>
       <c r="K20">
-        <v>0.6212309792970174</v>
+        <v>0.5201616589854225</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2131026658675559</v>
       </c>
       <c r="M20">
-        <v>1.414525517046258</v>
+        <v>0.1815930230425167</v>
       </c>
       <c r="N20">
-        <v>0.2154233228221045</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0.3168781432116461</v>
+        <v>1.389116906508946</v>
       </c>
       <c r="P20">
-        <v>1.001831324474011</v>
+        <v>0.226604268566021</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.3033228369287073</v>
+      </c>
+      <c r="R20">
+        <v>0.9239182820157126</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.651399317178431</v>
+        <v>1.501247331667656</v>
       </c>
       <c r="C21">
-        <v>0.2166301878934433</v>
+        <v>0.234066312683666</v>
       </c>
       <c r="D21">
-        <v>0.08578960205715447</v>
+        <v>0.09757790876004435</v>
       </c>
       <c r="E21">
-        <v>0.04598394186269061</v>
+        <v>0.04191480227470024</v>
       </c>
       <c r="F21">
-        <v>1.018303284767697</v>
+        <v>0.8613048620218109</v>
       </c>
       <c r="G21">
-        <v>0.8979076871975877</v>
+        <v>0.8420330820872977</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.001790987910520236</v>
+        <v>0.002064505111670556</v>
       </c>
       <c r="J21">
-        <v>0.5948320913791463</v>
+        <v>0.4248838932014394</v>
       </c>
       <c r="K21">
-        <v>0.6400190114166691</v>
+        <v>0.5138255927406732</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2039244113887051</v>
       </c>
       <c r="M21">
-        <v>1.597022705208218</v>
+        <v>0.1884420520349011</v>
       </c>
       <c r="N21">
-        <v>0.2377022661956119</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0.3558046125304131</v>
+        <v>1.539902935828252</v>
       </c>
       <c r="P21">
-        <v>0.9562586151461261</v>
+        <v>0.2493814826948864</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.3376136378709873</v>
+      </c>
+      <c r="R21">
+        <v>0.8700741950079411</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.776625811505482</v>
+        <v>1.602891958375579</v>
       </c>
       <c r="C22">
-        <v>0.2295076917521186</v>
+        <v>0.2448317614248623</v>
       </c>
       <c r="D22">
-        <v>0.088985792986783</v>
+        <v>0.1041958688255917</v>
       </c>
       <c r="E22">
-        <v>0.04700454804794418</v>
+        <v>0.04328607017991892</v>
       </c>
       <c r="F22">
-        <v>1.065118632346781</v>
+        <v>0.8768522419940297</v>
       </c>
       <c r="G22">
-        <v>0.9362427435706877</v>
+        <v>0.9298588802426195</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.001414435696873717</v>
+        <v>0.001723942903181452</v>
       </c>
       <c r="J22">
-        <v>0.6086011110206044</v>
+        <v>0.3671632935660227</v>
       </c>
       <c r="K22">
-        <v>0.6551406275440641</v>
+        <v>0.5108745816268154</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1984671618590426</v>
       </c>
       <c r="M22">
-        <v>1.717608465373445</v>
+        <v>0.1937420634151756</v>
       </c>
       <c r="N22">
-        <v>0.2523030729410465</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0.3817857730755847</v>
+        <v>1.637419434378558</v>
       </c>
       <c r="P22">
-        <v>0.928778787865042</v>
+        <v>0.2642412579352111</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.3602709480120794</v>
+      </c>
+      <c r="R22">
+        <v>0.8365800725779309</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.712861302800633</v>
+        <v>1.553132643508604</v>
       </c>
       <c r="C23">
-        <v>0.2217891366465778</v>
+        <v>0.2390444927722797</v>
       </c>
       <c r="D23">
-        <v>0.08708041705742886</v>
+        <v>0.1000785708508758</v>
       </c>
       <c r="E23">
-        <v>0.04654120411140639</v>
+        <v>0.04253196213336707</v>
       </c>
       <c r="F23">
-        <v>1.042590411889094</v>
+        <v>0.8741856532628276</v>
       </c>
       <c r="G23">
-        <v>0.9184532147417031</v>
+        <v>0.8761100961329049</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.001262356593692893</v>
+        <v>0.001503621059812943</v>
       </c>
       <c r="J23">
-        <v>0.6025912986054038</v>
+        <v>0.4083657303689137</v>
       </c>
       <c r="K23">
-        <v>0.6491645372011448</v>
+        <v>0.5160049758536189</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2025811350154569</v>
       </c>
       <c r="M23">
-        <v>1.653829511736433</v>
+        <v>0.1923478058838555</v>
       </c>
       <c r="N23">
-        <v>0.2442334357455138</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0.3682485496429351</v>
+        <v>1.588934245019374</v>
       </c>
       <c r="P23">
-        <v>0.9447028316306643</v>
+        <v>0.256128147441288</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.3487858181340968</v>
+      </c>
+      <c r="R23">
+        <v>0.8559761575776701</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.467066674906249</v>
+        <v>1.350438037623178</v>
       </c>
       <c r="C24">
-        <v>0.1942972541883847</v>
+        <v>0.2138886018188941</v>
       </c>
       <c r="D24">
-        <v>0.0801880683779288</v>
+        <v>0.08709501702526268</v>
       </c>
       <c r="E24">
-        <v>0.04470507740270158</v>
+        <v>0.04019631975950233</v>
       </c>
       <c r="F24">
-        <v>0.9555234688558869</v>
+        <v>0.8422233265947767</v>
       </c>
       <c r="G24">
-        <v>0.8488284014185155</v>
+        <v>0.7297640891512884</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.002078184298230035</v>
+        <v>0.001881524412687519</v>
       </c>
       <c r="J24">
-        <v>0.5788179483483304</v>
+        <v>0.5236415450445691</v>
       </c>
       <c r="K24">
-        <v>0.6242393790394658</v>
+        <v>0.5229978718902686</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2142482394934397</v>
       </c>
       <c r="M24">
-        <v>1.412525611463309</v>
+        <v>0.1825513208584475</v>
       </c>
       <c r="N24">
-        <v>0.2146830332553691</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0.3167723280892858</v>
+        <v>1.387387112999079</v>
       </c>
       <c r="P24">
-        <v>1.004708141687029</v>
+        <v>0.2258487572452736</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.3032486083757178</v>
+      </c>
+      <c r="R24">
+        <v>0.926165611423075</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.203280098364075</v>
+        <v>1.114286861700691</v>
       </c>
       <c r="C25">
-        <v>0.1652772431422562</v>
+        <v>0.1775447749132439</v>
       </c>
       <c r="D25">
-        <v>0.07272967593181079</v>
+        <v>0.07682620442923849</v>
       </c>
       <c r="E25">
-        <v>0.04283824234727795</v>
+        <v>0.03877519227926207</v>
       </c>
       <c r="F25">
-        <v>0.8663373107905556</v>
+        <v>0.7735120572698904</v>
       </c>
       <c r="G25">
-        <v>0.7781293312625621</v>
+        <v>0.6716687098053313</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.004737228349917189</v>
+        <v>0.003662201991987857</v>
       </c>
       <c r="J25">
-        <v>0.5556747302507858</v>
+        <v>0.5155472502367928</v>
       </c>
       <c r="K25">
-        <v>0.5997697242205362</v>
+        <v>0.5121746525839512</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2201241050488676</v>
       </c>
       <c r="M25">
-        <v>1.154442855927158</v>
+        <v>0.1668593923934445</v>
       </c>
       <c r="N25">
-        <v>0.1839511366020332</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0.2618995727497406</v>
+        <v>1.138697317960691</v>
       </c>
       <c r="P25">
-        <v>1.073199234349893</v>
+        <v>0.1933502311411104</v>
       </c>
       <c r="Q25">
+        <v>0.2514089305042049</v>
+      </c>
+      <c r="R25">
+        <v>0.9950006171271237</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
